--- a/Project_StressIndicators/Project_data/PlanRVA/inc_race_2022_PlanRVA.xlsx
+++ b/Project_StressIndicators/Project_data/PlanRVA/inc_race_2022_PlanRVA.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://richmondregional-my.sharepoint.com/personal/rsingh_planrva_org/Documents/Documents/2_Projects/Extras/Regional-Demographic-Visualizations/Regional-Demographics-Visualizations/Project_StressIndicators/Project_data/PlanRVA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_27B960FF04A3CD03E92C4C0165AF0CB1787A4C02" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{341770A1-C515-420B-B378-6748935CBBF8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1948,8 +1954,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2012,13 +2018,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2056,7 +2070,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2090,6 +2104,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2124,9 +2139,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2299,14 +2315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2409,7 +2425,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2462,7 +2478,7 @@
         <v>61375</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2515,7 +2531,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2621,7 +2637,7 @@
         <v>41711</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2674,7 +2690,7 @@
         <v>37408</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2727,7 +2743,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2780,7 +2796,7 @@
         <v>49151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2833,7 +2849,7 @@
         <v>40893</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2886,7 +2902,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2939,7 +2955,7 @@
         <v>37946</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2992,7 +3008,7 @@
         <v>83097</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3045,7 +3061,7 @@
         <v>80052</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3098,7 +3114,7 @@
         <v>42083</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3151,7 +3167,7 @@
         <v>41536</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3204,7 +3220,7 @@
         <v>58477</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3257,7 +3273,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3310,7 +3326,7 @@
         <v>96740</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3363,7 +3379,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3416,7 +3432,7 @@
         <v>91652</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3469,7 +3485,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3522,7 +3538,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3575,7 +3591,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3628,7 +3644,7 @@
         <v>120828</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3681,7 +3697,7 @@
         <v>60639</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3734,7 +3750,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>101083</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3840,7 +3856,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3893,7 +3909,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3946,7 +3962,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3999,7 +4015,7 @@
         <v>48802</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4052,7 +4068,7 @@
         <v>73618</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>64300</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4158,7 +4174,7 @@
         <v>105469</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4211,7 +4227,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4264,7 +4280,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4317,7 +4333,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4370,7 +4386,7 @@
         <v>120098</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4423,7 +4439,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4476,7 +4492,7 @@
         <v>123542</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4529,7 +4545,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4582,7 +4598,7 @@
         <v>56094</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4635,7 +4651,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>111610</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4741,7 +4757,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4794,7 +4810,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4847,7 +4863,7 @@
         <v>53098</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4900,7 +4916,7 @@
         <v>89375</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4953,7 +4969,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5006,7 +5022,7 @@
         <v>72721</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>100298</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5112,7 +5128,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5165,7 +5181,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5218,7 +5234,7 @@
         <v>76346</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5271,7 +5287,7 @@
         <v>55139</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5324,7 +5340,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5377,7 +5393,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5430,7 +5446,7 @@
         <v>51250</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5483,7 +5499,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5536,7 +5552,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5589,7 +5605,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5642,7 +5658,7 @@
         <v>133875</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5695,7 +5711,7 @@
         <v>54129</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>97688</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5801,7 +5817,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5854,7 +5870,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5907,7 +5923,7 @@
         <v>160609</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5960,7 +5976,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6013,7 +6029,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6066,7 +6082,7 @@
         <v>147969</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6119,7 +6135,7 @@
         <v>249917</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6172,7 +6188,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6225,7 +6241,7 @@
         <v>113750</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6278,7 +6294,7 @@
         <v>165240</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6331,7 +6347,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6384,7 +6400,7 @@
         <v>165089</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6437,7 +6453,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6490,7 +6506,7 @@
         <v>148333</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6543,7 +6559,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6596,7 +6612,7 @@
         <v>149693</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6649,7 +6665,7 @@
         <v>115139</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6702,7 +6718,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6755,7 +6771,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6808,7 +6824,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6861,7 +6877,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6914,7 +6930,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6967,7 +6983,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7020,7 +7036,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7073,7 +7089,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7126,7 +7142,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7179,7 +7195,7 @@
         <v>33934</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7285,7 +7301,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7338,7 +7354,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7391,7 +7407,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7444,7 +7460,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7497,7 +7513,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7550,7 +7566,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7603,7 +7619,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7656,7 +7672,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7709,7 +7725,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7762,7 +7778,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7815,7 +7831,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7868,7 +7884,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7921,7 +7937,7 @@
         <v>60461</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7974,7 +7990,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8027,7 +8043,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8080,7 +8096,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8133,7 +8149,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8186,7 +8202,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8239,7 +8255,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8292,7 +8308,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8345,7 +8361,7 @@
         <v>128140</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8398,7 +8414,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8451,7 +8467,7 @@
         <v>36294</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8504,7 +8520,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -8557,7 +8573,7 @@
         <v>64940</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -8610,7 +8626,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8663,7 +8679,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -8716,7 +8732,7 @@
         <v>60112</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -8769,7 +8785,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8822,7 +8838,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8875,7 +8891,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8928,7 +8944,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8981,7 +8997,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9034,7 +9050,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9087,7 +9103,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9140,7 +9156,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9193,7 +9209,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9246,7 +9262,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9299,7 +9315,7 @@
         <v>178841</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9352,7 +9368,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9405,7 +9421,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9458,7 +9474,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9511,7 +9527,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9617,7 +9633,7 @@
         <v>95952</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9670,7 +9686,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9723,7 +9739,7 @@
         <v>87625</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9776,7 +9792,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9829,7 +9845,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9882,7 +9898,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9935,7 +9951,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9988,7 +10004,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -10041,7 +10057,7 @@
         <v>53915</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -10094,7 +10110,7 @@
         <v>115625</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10147,7 +10163,7 @@
         <v>56389</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10200,7 +10216,7 @@
         <v>119485</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10253,7 +10269,7 @@
         <v>82917</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10306,7 +10322,7 @@
         <v>45750</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10359,7 +10375,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10412,7 +10428,7 @@
         <v>51705</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10465,7 +10481,7 @@
         <v>81821</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10518,7 +10534,7 @@
         <v>112120</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10571,7 +10587,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10624,7 +10640,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10677,7 +10693,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10730,7 +10746,7 @@
         <v>65625</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10783,7 +10799,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10836,7 +10852,7 @@
         <v>68864</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10889,7 +10905,7 @@
         <v>125521</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10942,7 +10958,7 @@
         <v>61811</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10995,7 +11011,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -11048,7 +11064,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -11101,7 +11117,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -11154,7 +11170,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -11207,7 +11223,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -11260,7 +11276,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -11313,7 +11329,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -11366,7 +11382,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -11419,7 +11435,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -11472,7 +11488,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -11525,7 +11541,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -11578,7 +11594,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -11631,7 +11647,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -11684,7 +11700,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -11737,7 +11753,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -11790,7 +11806,7 @@
         <v>103160</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -11843,7 +11859,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -11896,7 +11912,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -11949,7 +11965,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -12002,7 +12018,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -12055,7 +12071,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -12108,7 +12124,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -12161,7 +12177,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -12214,7 +12230,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -12267,7 +12283,7 @@
         <v>123622</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -12320,7 +12336,7 @@
         <v>112850</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -12373,7 +12389,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -12426,7 +12442,7 @@
         <v>72885</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -12479,7 +12495,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -12532,7 +12548,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -12585,7 +12601,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -12638,7 +12654,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -12691,7 +12707,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -12744,7 +12760,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -12797,7 +12813,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -12850,7 +12866,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -12903,7 +12919,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -12956,7 +12972,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -13009,7 +13025,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -13062,7 +13078,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -13115,7 +13131,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -13168,7 +13184,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -13221,7 +13237,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -13274,7 +13290,7 @@
         <v>41625</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -13327,7 +13343,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -13380,7 +13396,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -13433,7 +13449,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -13486,7 +13502,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -13539,7 +13555,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -13592,7 +13608,7 @@
         <v>46173</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -13645,7 +13661,7 @@
         <v>98701</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -13698,7 +13714,7 @@
         <v>103038</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -13751,7 +13767,7 @@
         <v>73125</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -13804,7 +13820,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -13857,7 +13873,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -13910,7 +13926,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -13963,7 +13979,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -14016,7 +14032,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -14069,7 +14085,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -14122,7 +14138,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -14175,7 +14191,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -14228,7 +14244,7 @@
         <v>50865</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -14281,7 +14297,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -14334,7 +14350,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -14387,7 +14403,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -14440,7 +14456,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -14493,7 +14509,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -14546,7 +14562,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -14599,7 +14615,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -14652,7 +14668,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -14705,7 +14721,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -14758,7 +14774,7 @@
         <v>134643</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -14811,7 +14827,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -14864,7 +14880,7 @@
         <v>54306</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -14917,7 +14933,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -14970,7 +14986,7 @@
         <v>81500</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -15023,7 +15039,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -15076,7 +15092,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -15129,7 +15145,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -15182,7 +15198,7 @@
         <v>71226</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -15235,7 +15251,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -15288,7 +15304,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -15341,7 +15357,7 @@
         <v>176324</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -15394,7 +15410,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -15447,7 +15463,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -15500,7 +15516,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -15553,7 +15569,7 @@
         <v>90372</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -15606,7 +15622,7 @@
         <v>53417</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -15659,7 +15675,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -15712,7 +15728,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -15765,7 +15781,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -15818,7 +15834,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -15871,7 +15887,7 @@
         <v>30192</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -15924,7 +15940,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -15977,7 +15993,7 @@
         <v>30481</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -16030,7 +16046,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -16083,7 +16099,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -16136,7 +16152,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -16189,7 +16205,7 @@
         <v>121818</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -16242,7 +16258,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -16295,7 +16311,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -16348,7 +16364,7 @@
         <v>85583</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -16401,7 +16417,7 @@
         <v>97188</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -16454,7 +16470,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -16507,7 +16523,7 @@
         <v>80500</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -16560,7 +16576,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -16613,7 +16629,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -16666,7 +16682,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -16719,7 +16735,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -16772,7 +16788,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -16825,7 +16841,7 @@
         <v>109563</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -16878,7 +16894,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -16931,7 +16947,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -16984,7 +17000,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -17037,7 +17053,7 @@
         <v>250001</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -17090,7 +17106,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -17143,7 +17159,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -17196,7 +17212,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -17249,7 +17265,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -17302,7 +17318,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -17355,7 +17371,7 @@
         <v>80234</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -17408,7 +17424,7 @@
         <v>58750</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -17461,7 +17477,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -17514,7 +17530,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -17567,7 +17583,7 @@
         <v>45884</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -17620,7 +17636,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -17673,7 +17689,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -17726,7 +17742,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -17779,7 +17795,7 @@
         <v>34897</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -17832,7 +17848,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -17885,7 +17901,7 @@
         <v>54866</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -17938,7 +17954,7 @@
         <v>90357</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -17991,7 +18007,7 @@
         <v>37137</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -18044,7 +18060,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -18097,7 +18113,7 @@
         <v>103678</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -18150,7 +18166,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -18203,7 +18219,7 @@
         <v>71141</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -18256,7 +18272,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -18309,7 +18325,7 @@
         <v>-666666666</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
